--- a/Note-sheet.xlsx
+++ b/Note-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\610567\Documents\Lab7Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30956EBB-A3F4-4036-993D-5709196DF9DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2C8847-0750-4EC6-9B00-3D2D02A0AE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5FA15908-BC1D-4DD3-8873-C02261E039DA}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Initial</t>
   </si>
@@ -208,13 +208,16 @@
     <t>10000x10</t>
   </si>
   <si>
-    <t>Optimization percent</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100x50</t>
+  </si>
+  <si>
+    <t>10,000x10</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -433,6 +436,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,20 +493,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Efficiency Comparizon </a:t>
+              <a:t>Efficiency</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>For the given set of data</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by percent</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1050"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -547,9 +547,6 @@
               <c:f>Time!$G$17:$G$18</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Optimization percent</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>100x50</c:v>
                 </c:pt>
@@ -568,31 +565,38 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$F$19:$F$27</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Time!$F$19:$F$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Time!$F$20:$F$27</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>No optimization</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>No optimization</c:v>
+                  <c:v>LazyCollection</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>LazyCollection</c:v>
+                  <c:v>BatchSize 10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BatchSize 10</c:v>
+                  <c:v>BatchSize 20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BatchSize 20</c:v>
+                  <c:v>BatchSize 50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BatchSize 50</c:v>
+                  <c:v>Subselect</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Subselect</c:v>
+                  <c:v>Join fetch</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Join fetch</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Entity Graph</c:v>
                 </c:pt>
               </c:strCache>
@@ -600,32 +604,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$G$19:$G$27</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Time!$G$19:$G$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Time!$G$20:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:ptCount val="8"/>
+                <c:pt idx="1" formatCode="0">
                   <c:v>36.334913112164301</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2" formatCode="0">
                   <c:v>28.751974723538709</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3" formatCode="0">
                   <c:v>22.906793048973142</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4" formatCode="0">
                   <c:v>30.963665086887843</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5" formatCode="0">
                   <c:v>29.225908372827803</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="6" formatCode="0">
                   <c:v>33.333333333333343</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="7" formatCode="0">
                   <c:v>36.492890995260666</c:v>
                 </c:pt>
               </c:numCache>
@@ -645,11 +653,8 @@
               <c:f>Time!$H$17:$H$18</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Optimization percent</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000x10</c:v>
+                  <c:v>10,000x10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -666,31 +671,38 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Time!$F$19:$F$27</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Time!$F$19:$F$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Time!$F$20:$F$27</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>No optimization</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>No optimization</c:v>
+                  <c:v>LazyCollection</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>LazyCollection</c:v>
+                  <c:v>BatchSize 10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BatchSize 10</c:v>
+                  <c:v>BatchSize 20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>BatchSize 20</c:v>
+                  <c:v>BatchSize 50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>BatchSize 50</c:v>
+                  <c:v>Subselect</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Subselect</c:v>
+                  <c:v>Join fetch</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Join fetch</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Entity Graph</c:v>
                 </c:pt>
               </c:strCache>
@@ -698,33 +710,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Time!$H$19:$H$27</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Time!$H$19:$H$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Time!$H$20:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>45.711826105670937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.334913112164301</c:v>
+                  <c:v>49.736360701603353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.751974723538709</c:v>
+                  <c:v>56.849241364467879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.906793048973142</c:v>
+                  <c:v>60.755407295814052</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.963665086887843</c:v>
+                  <c:v>62.778435381469919</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.225908372827803</c:v>
+                  <c:v>63.886796513504791</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.333333333333343</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36.492890995260666</c:v>
+                  <c:v>62.240395996986983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,6 +752,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -855,6 +872,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -931,7 +987,1101 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Execution time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Time!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 100x50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Time!$B$19:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>No optimization</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LazyCollection</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BatchSize 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BatchSize 20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BatchSize 50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Subselect</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Join fetch</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Entity Graph</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Time!$C$19:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C60-4E49-A919-DA76FE8725A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Time!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000x10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Time!$B$19:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>No optimization</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LazyCollection</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BatchSize 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BatchSize 20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BatchSize 50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Subselect</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Join fetch</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Entity Graph</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Time!$D$19:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>9293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3459</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3509</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C60-4E49-A919-DA76FE8725A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1813993087"/>
+        <c:axId val="1767472895"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1813993087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767472895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1767472895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1813993087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Efficiency by percent </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Time!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100x50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Time!$F$19:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>No optimization</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LazyCollection</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BatchSize 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BatchSize 20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BatchSize 50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Subselect</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Join fetch</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Entity Graph</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Time!$G$19:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>36.334913112164301</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>28.751974723538709</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>22.906793048973142</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>30.963665086887843</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>29.225908372827803</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>33.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>36.492890995260666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7F2-4860-8252-100C3B60F584}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Time!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10,000x10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Time!$F$19:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>No optimization</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LazyCollection</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BatchSize 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BatchSize 20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BatchSize 50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Subselect</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Join fetch</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Entity Graph</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Time!$H$19:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2">
+                  <c:v>45.711826105670937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.736360701603353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.849241364467879</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.755407295814052</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.778435381469919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.886796513504791</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.240395996986983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C7F2-4860-8252-100C3B60F584}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1807657919"/>
+        <c:axId val="1770214911"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="1807657919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1770214911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1770214911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807657919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1474,6 +2624,1035 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1507,6 +3686,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A228BBD4-AA97-40A1-B48F-240229332811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBD0221-6C24-4E85-9ADE-2C6689956644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1930,8 +4181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC13721-C26B-4B14-851B-03FD923DD342}">
   <dimension ref="B5:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,16 +4211,16 @@
     <row r="6" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
       <c r="C6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="E6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -1980,16 +4231,15 @@
         <v>633</v>
       </c>
       <c r="D7" s="22">
-        <f>F7</f>
-        <v>93.75</v>
+        <f t="shared" ref="D7:D14" si="0">100 - (C7/633*100)</f>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <f>C7*0.5</f>
-        <v>316.5</v>
+        <v>9293</v>
       </c>
       <c r="F7" s="22">
-        <f>100 - (E7/5064*100)</f>
-        <v>93.75</v>
+        <f>100 - (E7/9293*100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -2000,16 +4250,15 @@
         <v>403</v>
       </c>
       <c r="D8" s="22">
-        <f t="shared" ref="D8:D14" si="0">100 - (C8/633*100)</f>
+        <f t="shared" si="0"/>
         <v>36.334913112164301</v>
       </c>
       <c r="E8" s="1">
-        <f>C8*0.5</f>
-        <v>201.5</v>
+        <v>5045</v>
       </c>
       <c r="F8" s="22">
-        <f t="shared" ref="F8:F14" si="1">100 - (E8/5064*100)</f>
-        <v>96.020932069510266</v>
+        <f t="shared" ref="F8:F14" si="1">100 - (E8/9293*100)</f>
+        <v>45.711826105670937</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -2024,12 +4273,11 @@
         <v>28.751974723538709</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9:E14" si="2">C9*8</f>
-        <v>3608</v>
+        <v>4671</v>
       </c>
       <c r="F9" s="22">
         <f t="shared" si="1"/>
-        <v>28.751974723538709</v>
+        <v>49.736360701603353</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -2044,12 +4292,11 @@
         <v>22.906793048973142</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="2"/>
-        <v>3904</v>
+        <v>4010</v>
       </c>
       <c r="F10" s="22">
         <f t="shared" si="1"/>
-        <v>22.906793048973142</v>
+        <v>56.849241364467879</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -2064,12 +4311,11 @@
         <v>30.963665086887843</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="2"/>
-        <v>3496</v>
+        <v>3647</v>
       </c>
       <c r="F11" s="22">
         <f t="shared" si="1"/>
-        <v>30.963665086887843</v>
+        <v>60.755407295814052</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -2084,12 +4330,11 @@
         <v>29.225908372827803</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="2"/>
-        <v>3584</v>
+        <v>3459</v>
       </c>
       <c r="F12" s="22">
         <f t="shared" si="1"/>
-        <v>29.225908372827803</v>
+        <v>62.778435381469919</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -2104,12 +4349,11 @@
         <v>33.333333333333343</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="2"/>
-        <v>3376</v>
+        <v>3356</v>
       </c>
       <c r="F13" s="22">
         <f t="shared" si="1"/>
-        <v>33.333333333333343</v>
+        <v>63.886796513504791</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -2124,23 +4368,20 @@
         <v>36.492890995260666</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
-        <v>3216</v>
+        <v>3509</v>
       </c>
       <c r="F14" s="22">
         <f t="shared" si="1"/>
-        <v>36.492890995260666</v>
+        <v>62.240395996986983</v>
       </c>
     </row>
     <row r="17" spans="2:8" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
-      <c r="F17" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
@@ -2148,10 +4389,10 @@
       <c r="B18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="23" t="s">
@@ -2161,7 +4402,7 @@
         <v>31</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -2180,18 +4421,13 @@
         <v>633</v>
       </c>
       <c r="D20" s="1">
-        <f>C20*8</f>
-        <v>5064</v>
+        <v>9293</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="22">
-        <v>0</v>
-      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
@@ -2201,17 +4437,16 @@
         <v>403</v>
       </c>
       <c r="D21" s="1">
-        <f>C21*8</f>
-        <v>3224</v>
+        <v>5045</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="27">
         <v>36.334913112164301</v>
       </c>
       <c r="H21" s="22">
-        <v>36.334913112164301</v>
+        <v>45.711826105670937</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -2222,17 +4457,16 @@
         <v>451</v>
       </c>
       <c r="D22" s="1">
-        <f>C22*8</f>
-        <v>3608</v>
+        <v>4671</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="27">
         <v>28.751974723538709</v>
       </c>
       <c r="H22" s="22">
-        <v>28.751974723538709</v>
+        <v>49.736360701603353</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -2243,17 +4477,16 @@
         <v>488</v>
       </c>
       <c r="D23" s="1">
-        <f>C23*8</f>
-        <v>3904</v>
+        <v>4010</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="27">
         <v>22.906793048973142</v>
       </c>
       <c r="H23" s="22">
-        <v>22.906793048973142</v>
+        <v>56.849241364467879</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -2264,17 +4497,16 @@
         <v>437</v>
       </c>
       <c r="D24" s="1">
-        <f>C24*8</f>
-        <v>3496</v>
+        <v>3647</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="27">
         <v>30.963665086887843</v>
       </c>
       <c r="H24" s="22">
-        <v>30.963665086887843</v>
+        <v>60.755407295814052</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -2285,17 +4517,16 @@
         <v>448</v>
       </c>
       <c r="D25" s="1">
-        <f>C25*8</f>
-        <v>3584</v>
+        <v>3459</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="27">
         <v>29.225908372827803</v>
       </c>
       <c r="H25" s="22">
-        <v>29.225908372827803</v>
+        <v>62.778435381469919</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -2306,17 +4537,16 @@
         <v>422</v>
       </c>
       <c r="D26" s="1">
-        <f>C26*8</f>
-        <v>3376</v>
+        <v>3356</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="27">
         <v>33.333333333333343</v>
       </c>
       <c r="H26" s="22">
-        <v>33.333333333333343</v>
+        <v>63.886796513504791</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -2327,17 +4557,16 @@
         <v>402</v>
       </c>
       <c r="D27" s="1">
-        <f>C27*8</f>
-        <v>3216</v>
+        <v>3509</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="27">
         <v>36.492890995260666</v>
       </c>
       <c r="H27" s="22">
-        <v>36.492890995260666</v>
+        <v>62.240395996986983</v>
       </c>
     </row>
   </sheetData>
